--- a/Covid_19_Dataset_and_References/References/92.xlsx
+++ b/Covid_19_Dataset_and_References/References/92.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="56">
   <si>
     <t>Doi</t>
   </si>
@@ -193,6 +193,30 @@
   </si>
   <si>
     <t>[Zoe B.%Cheung%zoe.cheung@mountsinai.org%1,   David A.%Forsh%NULL%1]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Kenneth A.%Egol%NULL%2,    Sanjit R.%Konda%NULL%2,    Mackenzie L.%Bird%NULL%2,    Nicket%Dedhia%NULL%2,    Emma K.%Landes%NULL%2,    Rachel A.%Ranson%NULL%2,    Sara J.%Solasz%NULL%2,    Vinay K.%Aggarwal%NULL%2,    Joseph A.%Bosco%NULL%2,    David L.%Furgiuele%NULL%2,    Abhishek%Ganta%NULL%2,    Jason%Gould%NULL%2,    Thomas R.%Lyon%NULL%2,    Toni M.%McLaurin%NULL%2,    Nirmal C.%Tejwani%NULL%2,    Joseph D.%Zuckerman%NULL%2,    Philipp%Leucht%NULL%2]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Drake G.%LeBrun%NULL%2,    Maxwell A.%Konnaris%NULL%2,    Gregory C.%Ghahramani%NULL%2,    Ajay%Premkumar%NULL%2,    Chris J.%DeFrancesco%NULL%2,    Jordan A.%Gruskay%NULL%2,    Aleksey%Dvorzhinskiy%NULL%2,    Milan S.%Sandhu%NULL%2,    Elan M.%Goldwyn%NULL%2,    Christopher L.%Mendias%NULL%2,    William M.%Ricci%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Josep Maria%Muñoz Vives%NULL%1,    Montsant%Jornet-Gibert%NULL%2,    Montsant%Jornet-Gibert%NULL%0,    J.%Cámara-Cabrera%NULL%2,    J.%Cámara-Cabrera%NULL%0,    Pedro L.%Esteban%NULL%2,    Pedro L.%Esteban%NULL%0,    Laia%Brunet%NULL%2,    Laia%Brunet%NULL%0,    Luis%Delgado-Flores%NULL%2,    Luis%Delgado-Flores%NULL%0,    P.%Camacho-Carrasco%NULL%2,    P.%Camacho-Carrasco%NULL%0,    P.%Torner%NULL%2,    P.%Torner%NULL%0,    Francesc%Marcano-Fernández%NULL%2,    Francesc%Marcano-Fernández%NULL%0,    NULL%NULL%NULL%0,    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zoe B.%Cheung%zoe.cheung@mountsinai.org%1,    David A.%Forsh%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -523,6 +547,9 @@
       <c r="H1" t="s">
         <v>19</v>
       </c>
+      <c r="I1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -538,7 +565,7 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -548,6 +575,9 @@
       </c>
       <c r="H2" t="s">
         <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -564,7 +594,7 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -574,6 +604,9 @@
       </c>
       <c r="H3" t="s">
         <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -590,7 +623,7 @@
         <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
         <v>33</v>
@@ -600,6 +633,9 @@
       </c>
       <c r="H4" t="s">
         <v>34</v>
+      </c>
+      <c r="I4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -616,7 +652,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
         <v>38</v>
@@ -626,6 +662,9 @@
       </c>
       <c r="H5" t="s">
         <v>39</v>
+      </c>
+      <c r="I5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6">
@@ -653,6 +692,9 @@
       <c r="H6" t="s">
         <v>34</v>
       </c>
+      <c r="I6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
@@ -678,6 +720,9 @@
       </c>
       <c r="H7" t="s">
         <v>34</v>
+      </c>
+      <c r="I7" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/92.xlsx
+++ b/Covid_19_Dataset_and_References/References/92.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="68">
   <si>
     <t>Doi</t>
   </si>
@@ -217,6 +217,42 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>[Kenneth A.%Egol%NULL%2,     Sanjit R.%Konda%NULL%2,     Mackenzie L.%Bird%NULL%2,     Nicket%Dedhia%NULL%2,     Emma K.%Landes%NULL%2,     Rachel A.%Ranson%NULL%2,     Sara J.%Solasz%NULL%2,     Vinay K.%Aggarwal%NULL%2,     Joseph A.%Bosco%NULL%2,     David L.%Furgiuele%NULL%2,     Abhishek%Ganta%NULL%2,     Jason%Gould%NULL%2,     Thomas R.%Lyon%NULL%2,     Toni M.%McLaurin%NULL%2,     Nirmal C.%Tejwani%NULL%2,     Joseph D.%Zuckerman%NULL%2,     Philipp%Leucht%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Drake G.%LeBrun%NULL%2,     Maxwell A.%Konnaris%NULL%2,     Gregory C.%Ghahramani%NULL%2,     Ajay%Premkumar%NULL%2,     Chris J.%DeFrancesco%NULL%2,     Jordan A.%Gruskay%NULL%2,     Aleksey%Dvorzhinskiy%NULL%2,     Milan S.%Sandhu%NULL%2,     Elan M.%Goldwyn%NULL%2,     Christopher L.%Mendias%NULL%2,     William M.%Ricci%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Josep Maria%Muñoz Vives%NULL%1,     Montsant%Jornet-Gibert%NULL%2,     Montsant%Jornet-Gibert%NULL%0,     J.%Cámara-Cabrera%NULL%2,     J.%Cámara-Cabrera%NULL%0,     Pedro L.%Esteban%NULL%2,     Pedro L.%Esteban%NULL%0,     Laia%Brunet%NULL%2,     Laia%Brunet%NULL%0,     Luis%Delgado-Flores%NULL%2,     Luis%Delgado-Flores%NULL%0,     P.%Camacho-Carrasco%NULL%2,     P.%Camacho-Carrasco%NULL%0,     P.%Torner%NULL%2,     P.%Torner%NULL%0,     Francesc%Marcano-Fernández%NULL%2,     Francesc%Marcano-Fernández%NULL%0,     NULL%NULL%NULL%0,     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zoe B.%Cheung%zoe.cheung@mountsinai.org%1,     David A.%Forsh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth A.%Egol%NULL%2,      Sanjit R.%Konda%NULL%2,      Mackenzie L.%Bird%NULL%2,      Nicket%Dedhia%NULL%2,      Emma K.%Landes%NULL%2,      Rachel A.%Ranson%NULL%2,      Sara J.%Solasz%NULL%2,      Vinay K.%Aggarwal%NULL%2,      Joseph A.%Bosco%NULL%2,      David L.%Furgiuele%NULL%2,      Abhishek%Ganta%NULL%2,      Jason%Gould%NULL%2,      Thomas R.%Lyon%NULL%2,      Toni M.%McLaurin%NULL%2,      Nirmal C.%Tejwani%NULL%2,      Joseph D.%Zuckerman%NULL%2,      Philipp%Leucht%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Drake G.%LeBrun%NULL%2,      Maxwell A.%Konnaris%NULL%2,      Gregory C.%Ghahramani%NULL%2,      Ajay%Premkumar%NULL%2,      Chris J.%DeFrancesco%NULL%2,      Jordan A.%Gruskay%NULL%2,      Aleksey%Dvorzhinskiy%NULL%2,      Milan S.%Sandhu%NULL%2,      Elan M.%Goldwyn%NULL%2,      Christopher L.%Mendias%NULL%2,      William M.%Ricci%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Josep Maria%Muñoz Vives%NULL%1,      Montsant%Jornet-Gibert%NULL%2,      Montsant%Jornet-Gibert%NULL%0,      J.%Cámara-Cabrera%NULL%2,      J.%Cámara-Cabrera%NULL%0,      Pedro L.%Esteban%NULL%2,      Pedro L.%Esteban%NULL%0,      Laia%Brunet%NULL%2,      Laia%Brunet%NULL%0,      Luis%Delgado-Flores%NULL%2,      Luis%Delgado-Flores%NULL%0,      P.%Camacho-Carrasco%NULL%2,      P.%Camacho-Carrasco%NULL%0,      P.%Torner%NULL%2,      P.%Torner%NULL%0,      Francesc%Marcano-Fernández%NULL%2,      Francesc%Marcano-Fernández%NULL%0,      NULL%NULL%NULL%0,      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zoe B.%Cheung%zoe.cheung@mountsinai.org%1,      David A.%Forsh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth A.%Egol%NULL%2,       Sanjit R.%Konda%NULL%2,       Mackenzie L.%Bird%NULL%2,       Nicket%Dedhia%NULL%2,       Emma K.%Landes%NULL%2,       Rachel A.%Ranson%NULL%2,       Sara J.%Solasz%NULL%2,       Vinay K.%Aggarwal%NULL%2,       Joseph A.%Bosco%NULL%2,       David L.%Furgiuele%NULL%2,       Abhishek%Ganta%NULL%2,       Jason%Gould%NULL%2,       Thomas R.%Lyon%NULL%2,       Toni M.%McLaurin%NULL%2,       Nirmal C.%Tejwani%NULL%2,       Joseph D.%Zuckerman%NULL%2,       Philipp%Leucht%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Drake G.%LeBrun%NULL%2,       Maxwell A.%Konnaris%NULL%2,       Gregory C.%Ghahramani%NULL%2,       Ajay%Premkumar%NULL%2,       Chris J.%DeFrancesco%NULL%2,       Jordan A.%Gruskay%NULL%2,       Aleksey%Dvorzhinskiy%NULL%2,       Milan S.%Sandhu%NULL%2,       Elan M.%Goldwyn%NULL%2,       Christopher L.%Mendias%NULL%2,       William M.%Ricci%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Josep Maria%Muñoz Vives%NULL%1,       Montsant%Jornet-Gibert%NULL%2,       Montsant%Jornet-Gibert%NULL%0,       J.%Cámara-Cabrera%NULL%2,       J.%Cámara-Cabrera%NULL%0,       Pedro L.%Esteban%NULL%2,       Pedro L.%Esteban%NULL%0,       Laia%Brunet%NULL%2,       Laia%Brunet%NULL%0,       Luis%Delgado-Flores%NULL%2,       Luis%Delgado-Flores%NULL%0,       P.%Camacho-Carrasco%NULL%2,       P.%Camacho-Carrasco%NULL%0,       P.%Torner%NULL%2,       P.%Torner%NULL%0,       Francesc%Marcano-Fernández%NULL%2,       Francesc%Marcano-Fernández%NULL%0,       NULL%NULL%NULL%0,       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zoe B.%Cheung%zoe.cheung@mountsinai.org%1,       David A.%Forsh%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -565,7 +601,7 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -594,7 +630,7 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -623,7 +659,7 @@
         <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="F4" t="s">
         <v>33</v>
@@ -652,7 +688,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="F5" t="s">
         <v>38</v>

--- a/Covid_19_Dataset_and_References/References/92.xlsx
+++ b/Covid_19_Dataset_and_References/References/92.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="86">
   <si>
     <t>Doi</t>
   </si>
@@ -253,6 +253,86 @@
   </si>
   <si>
     <t>[Zoe B.%Cheung%zoe.cheung@mountsinai.org%1,       David A.%Forsh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth A.%Egol%NULL%2,        Sanjit R.%Konda%NULL%2,        Mackenzie L.%Bird%NULL%2,        Nicket%Dedhia%NULL%2,        Emma K.%Landes%NULL%2,        Rachel A.%Ranson%NULL%2,        Sara J.%Solasz%NULL%2,        Vinay K.%Aggarwal%NULL%2,        Joseph A.%Bosco%NULL%2,        David L.%Furgiuele%NULL%2,        Abhishek%Ganta%NULL%2,        Jason%Gould%NULL%2,        Thomas R.%Lyon%NULL%2,        Toni M.%McLaurin%NULL%2,        Nirmal C.%Tejwani%NULL%2,        Joseph D.%Zuckerman%NULL%2,        Philipp%Leucht%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Drake G.%LeBrun%NULL%2,        Maxwell A.%Konnaris%NULL%2,        Gregory C.%Ghahramani%NULL%2,        Ajay%Premkumar%NULL%2,        Chris J.%DeFrancesco%NULL%2,        Jordan A.%Gruskay%NULL%2,        Aleksey%Dvorzhinskiy%NULL%2,        Milan S.%Sandhu%NULL%2,        Elan M.%Goldwyn%NULL%2,        Christopher L.%Mendias%NULL%2,        William M.%Ricci%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Josep Maria%Muñoz Vives%NULL%1,        Montsant%Jornet-Gibert%NULL%2,        Montsant%Jornet-Gibert%NULL%0,        J.%Cámara-Cabrera%NULL%2,        J.%Cámara-Cabrera%NULL%0,        Pedro L.%Esteban%NULL%2,        Pedro L.%Esteban%NULL%0,        Laia%Brunet%NULL%2,        Laia%Brunet%NULL%0,        Luis%Delgado-Flores%NULL%2,        Luis%Delgado-Flores%NULL%0,        P.%Camacho-Carrasco%NULL%2,        P.%Camacho-Carrasco%NULL%0,        P.%Torner%NULL%2,        P.%Torner%NULL%0,        Francesc%Marcano-Fernández%NULL%2,        Francesc%Marcano-Fernández%NULL%0,        NULL%NULL%NULL%0,        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zoe B.%Cheung%zoe.cheung@mountsinai.org%1,        David A.%Forsh%NULL%1]</t>
+  </si>
+  <si>
+    <t>"IMPACT-Scot report on COVID-19 and hip fractures"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Aims The primary aim was to assess the independent influence of coronavirus disease (COVID-19) on 30-day mortality for patients with a hip fracture.
+ The secondary aims were to determine whether: 1) there were clinical predictors of COVID-19 status; and 2) whether social lockdown influenced the incidence and epidemiology of hip fractures.
+ Methods A national multicentre retrospective study was conducted of all patients presenting to six trauma centres or units with a hip fracture over a 46-day period (23 days pre- and 23 days post-lockdown).
+ Patient demographics, type of residence, place of injury, presentation blood tests, Nottingham Hip Fracture Score, time to surgery, operation, American Society of Anesthesiologists (ASA) grade, anaesthetic, length of stay, COVID-19 status, and 30-day mortality were recorded.
+ Results Of 317 patients with acute hip fracture, 27 (8.5%) had a positive COVID-19 test.
+ Only seven (26%) had suggestive symptoms on admission.
+ COVID-19-positive patients had a significantly lower 30-day survival compared to those without COVID-19 (64.5%, 95% confidence interval (CI) 45.7 to 83.3 vs 91.7%, 95% CI 88.2 to 94.8; p &amp;lt; 0.001).
+ COVID-19 was independently associated with increased 30-day mortality risk adjusting for: 1) age, sex, type of residence (hazard ratio (HR) 2.93; p = 0.008); 2) Nottingham Hip Fracture Score (HR 3.52; p = 0.001); and 3) ASA (HR 3.45; p = 0.004).
+ Presentation platelet count predicted subsequent COVID-19 status; a value of &amp;lt; 217 \u00d7 109\/l was associated with 68% area under the curve (95% CI 58 to 77; p = 0.002) and a sensitivity and specificity of 63%.
+ A similar number of patients presented with hip fracture in the 23 days pre-lockdown (n = 160) and 23 days post-lockdown (n = 157) with no significant (all p \u2265 0.130) difference in patient demographics, residence, place of injury, Nottingham Hip Fracture Score, time to surgery, ASA, or management.
+ Conclusion COVID-19 was independently associated with an increased 30-day mortality rate for patients with a hip fracture.
+ Notably, most patients with hip fracture and COVID-19 lacked suggestive symptoms at presentation.
+ Platelet count was an indicator of risk of COVID-19 infection.
+ These findings have implications for the management of hip fractures, in particular the need for COVID-19 testing.
+ Cite this article: Bone Joint J 2020;102-B(9):1219\u20131228. </t>
+  </si>
+  <si>
+    <t>[Andrew J.%Hall%xref no email%2, Nicholas D.%Clement%xref no email%2, Luke%Farrow%xref no email%2, Alasdair M. J.%MacLullich%xref no email%2, Graham F.%Dall%xref no email%2, Chloe E. H.%Scott%xref no email%2, Paul J.%Jenkins%xref no email%2, Timothy O.%White%xref no email%2, Andrew D.%Duckworth%xref no email%2]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-26</t>
+  </si>
+  <si>
+    <t>"The effects of COVID-19 on perioperative morbidity and mortality in patients with hip fractures"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Aims During the COVID-19 pandemic, many patients continue to require urgent surgery for hip fractures.
+ However, the impact of COVID-19 on perioperative outcomes in these high-risk patients remains unknown.
+ The objectives of this study were to establish the effects of COVID-19 on perioperative morbidity and mortality, and determine any risk factors for increased mortality in patients with COVID-19 undergoing hip fracture surgery.
+ Methods This multicentre cohort study included 340 COVID-19-negative patients versus 82 COVID-19-positive patients undergoing surgical treatment for hip fractures across nine NHS hospitals in Greater London, UK.
+ Patients in both treatment groups were comparable for age, sex, body mass index, fracture configuration, and type of surgery performed.
+ Predefined perioperative outcomes were recorded within a 30-day postoperative period.
+ Univariate and multivariate analysis were used to identify risk factors associated with increased risk of mortality.
+ Results COVID-19-positive patients had increased postoperative mortality rates (30.5% (25\/82) vs 10.3% (35\/340) respectively, p &amp;lt; 0.001) compared to COVID-19-negative patients.
+ Risk factors for increased mortality in patients with COVID-19 undergoing surgery included positive smoking status (hazard ratio (HR) 15.4 (95% confidence interval (CI) 4.55 to 52.2; p &amp;lt; 0.001) and greater than three comorbidities (HR 13.5 (95% CI 2.82 to 66.0, p &amp;lt; 0.001).
+ COVID-19-positive patients had increased risk of postoperative complications (89.0% (73\/82) vs 35.0% (119\/340) respectively; p &amp;lt; 0.001), more critical care unit admissions (61.0% (50\/82) vs 18.2% (62\/340) respectively; p &amp;lt; 0.001), and increased length of hospital stay (mean 13.8 days (SD 4.6) vs 6.7 days (SD 2.5) respectively; p &amp;lt; 0.001), compared to COVID-19-negative patients.
+ Conclusion Hip fracture surgery in COVID-19-positive patients was associated with increased length of hospital stay, more admissions to the critical care unit, higher risk of perioperative complications, and increased mortality rates compared to COVID-19-negative patients.
+ Risk factors for increased mortality in patients with COVID-19 undergoing surgery included positive smoking status and multiple (greater than three) comorbidities.
+ Cite this article: Bone Joint J 2020;102-B(9):1136\u20131145. </t>
+  </si>
+  <si>
+    <t>[Babar%Kayani%xref no email%2, Elliot%Onochie%xref no email%2, Vijay%Patil%xref no email%2, Fahima%Begum%xref no email%2, Rory%Cuthbert%xref no email%2, David%Ferguson%xref no email%2, Jagmeet S.%Bhamra%xref no email%2, Aadhar%Sharma%xref no email%2, Peter%Bates%xref no email%2, Fares S.%Haddad%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Kenneth A.%Egol%NULL%2,         Sanjit R.%Konda%NULL%2,         Mackenzie L.%Bird%NULL%2,         Nicket%Dedhia%NULL%2,         Emma K.%Landes%NULL%2,         Rachel A.%Ranson%NULL%2,         Sara J.%Solasz%NULL%2,         Vinay K.%Aggarwal%NULL%2,         Joseph A.%Bosco%NULL%2,         David L.%Furgiuele%NULL%2,         Abhishek%Ganta%NULL%2,         Jason%Gould%NULL%2,         Thomas R.%Lyon%NULL%2,         Toni M.%McLaurin%NULL%2,         Nirmal C.%Tejwani%NULL%2,         Joseph D.%Zuckerman%NULL%2,         Philipp%Leucht%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Drake G.%LeBrun%NULL%2,         Maxwell A.%Konnaris%NULL%2,         Gregory C.%Ghahramani%NULL%2,         Ajay%Premkumar%NULL%2,         Chris J.%DeFrancesco%NULL%2,         Jordan A.%Gruskay%NULL%2,         Aleksey%Dvorzhinskiy%NULL%2,         Milan S.%Sandhu%NULL%2,         Elan M.%Goldwyn%NULL%2,         Christopher L.%Mendias%NULL%2,         William M.%Ricci%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Josep Maria%Muñoz Vives%NULL%1,         Montsant%Jornet-Gibert%NULL%2,         Montsant%Jornet-Gibert%NULL%0,         J.%Cámara-Cabrera%NULL%2,         J.%Cámara-Cabrera%NULL%0,         Pedro L.%Esteban%NULL%2,         Pedro L.%Esteban%NULL%0,         Laia%Brunet%NULL%2,         Laia%Brunet%NULL%0,         Luis%Delgado-Flores%NULL%2,         Luis%Delgado-Flores%NULL%0,         P.%Camacho-Carrasco%NULL%2,         P.%Camacho-Carrasco%NULL%0,         P.%Torner%NULL%2,         P.%Torner%NULL%0,         Francesc%Marcano-Fernández%NULL%2,         Francesc%Marcano-Fernández%NULL%0,         NULL%NULL%NULL%0,         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zoe B.%Cheung%zoe.cheung@mountsinai.org%1,         David A.%Forsh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew J.%Hall%xref no email%2,  Nicholas D.%Clement%xref no email%2,  Luke%Farrow%xref no email%2,  Alasdair M. J.%MacLullich%xref no email%2,  Graham F.%Dall%xref no email%2,  Chloe E. H.%Scott%xref no email%2,  Paul J.%Jenkins%xref no email%2,  Timothy O.%White%xref no email%2,  Andrew D.%Duckworth%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Babar%Kayani%xref no email%2,  Elliot%Onochie%xref no email%2,  Vijay%Patil%xref no email%2,  Fahima%Begum%xref no email%2,  Rory%Cuthbert%xref no email%2,  David%Ferguson%xref no email%2,  Jagmeet S.%Bhamra%xref no email%2,  Aadhar%Sharma%xref no email%2,  Peter%Bates%xref no email%2,  Fares S.%Haddad%xref no email%2]</t>
   </si>
 </sst>
 </file>
@@ -601,7 +681,7 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -630,7 +710,7 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -659,7 +739,7 @@
         <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="F4" t="s">
         <v>33</v>
@@ -688,7 +768,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="F5" t="s">
         <v>38</v>
@@ -711,22 +791,22 @@
         <v>44088.0</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s">
         <v>55</v>
@@ -740,22 +820,22 @@
         <v>44088.0</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s">
         <v>55</v>

--- a/Covid_19_Dataset_and_References/References/92.xlsx
+++ b/Covid_19_Dataset_and_References/References/92.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="98">
   <si>
     <t>Doi</t>
   </si>
@@ -333,6 +333,42 @@
   </si>
   <si>
     <t>[Babar%Kayani%xref no email%2,  Elliot%Onochie%xref no email%2,  Vijay%Patil%xref no email%2,  Fahima%Begum%xref no email%2,  Rory%Cuthbert%xref no email%2,  David%Ferguson%xref no email%2,  Jagmeet S.%Bhamra%xref no email%2,  Aadhar%Sharma%xref no email%2,  Peter%Bates%xref no email%2,  Fares S.%Haddad%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Kenneth A.%Egol%NULL%2,          Sanjit R.%Konda%NULL%2,          Mackenzie L.%Bird%NULL%2,          Nicket%Dedhia%NULL%2,          Emma K.%Landes%NULL%2,          Rachel A.%Ranson%NULL%2,          Sara J.%Solasz%NULL%2,          Vinay K.%Aggarwal%NULL%2,          Joseph A.%Bosco%NULL%2,          David L.%Furgiuele%NULL%2,          Abhishek%Ganta%NULL%2,          Jason%Gould%NULL%2,          Thomas R.%Lyon%NULL%2,          Toni M.%McLaurin%NULL%2,          Nirmal C.%Tejwani%NULL%2,          Joseph D.%Zuckerman%NULL%2,          Philipp%Leucht%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Drake G.%LeBrun%NULL%2,          Maxwell A.%Konnaris%NULL%2,          Gregory C.%Ghahramani%NULL%2,          Ajay%Premkumar%NULL%2,          Chris J.%DeFrancesco%NULL%2,          Jordan A.%Gruskay%NULL%2,          Aleksey%Dvorzhinskiy%NULL%2,          Milan S.%Sandhu%NULL%2,          Elan M.%Goldwyn%NULL%2,          Christopher L.%Mendias%NULL%2,          William M.%Ricci%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Josep Maria%Muñoz Vives%NULL%1,          Montsant%Jornet-Gibert%NULL%2,          Montsant%Jornet-Gibert%NULL%0,          J.%Cámara-Cabrera%NULL%2,          J.%Cámara-Cabrera%NULL%0,          Pedro L.%Esteban%NULL%2,          Pedro L.%Esteban%NULL%0,          Laia%Brunet%NULL%2,          Laia%Brunet%NULL%0,          Luis%Delgado-Flores%NULL%2,          Luis%Delgado-Flores%NULL%0,          P.%Camacho-Carrasco%NULL%2,          P.%Camacho-Carrasco%NULL%0,          P.%Torner%NULL%2,          P.%Torner%NULL%0,          Francesc%Marcano-Fernández%NULL%2,          Francesc%Marcano-Fernández%NULL%0,          NULL%NULL%NULL%0,          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zoe B.%Cheung%zoe.cheung@mountsinai.org%1,          David A.%Forsh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew J.%Hall%xref no email%2,   Nicholas D.%Clement%xref no email%2,   Luke%Farrow%xref no email%2,   Alasdair M. J.%MacLullich%xref no email%2,   Graham F.%Dall%xref no email%2,   Chloe E. H.%Scott%xref no email%2,   Paul J.%Jenkins%xref no email%2,   Timothy O.%White%xref no email%2,   Andrew D.%Duckworth%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Babar%Kayani%xref no email%2,   Elliot%Onochie%xref no email%2,   Vijay%Patil%xref no email%2,   Fahima%Begum%xref no email%2,   Rory%Cuthbert%xref no email%2,   David%Ferguson%xref no email%2,   Jagmeet S.%Bhamra%xref no email%2,   Aadhar%Sharma%xref no email%2,   Peter%Bates%xref no email%2,   Fares S.%Haddad%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Kenneth A.%Egol%NULL%2,           Sanjit R.%Konda%NULL%2,           Mackenzie L.%Bird%NULL%2,           Nicket%Dedhia%NULL%2,           Emma K.%Landes%NULL%2,           Rachel A.%Ranson%NULL%2,           Sara J.%Solasz%NULL%2,           Vinay K.%Aggarwal%NULL%2,           Joseph A.%Bosco%NULL%2,           David L.%Furgiuele%NULL%2,           Abhishek%Ganta%NULL%2,           Jason%Gould%NULL%2,           Thomas R.%Lyon%NULL%2,           Toni M.%McLaurin%NULL%2,           Nirmal C.%Tejwani%NULL%2,           Joseph D.%Zuckerman%NULL%2,           Philipp%Leucht%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Drake G.%LeBrun%NULL%2,           Maxwell A.%Konnaris%NULL%2,           Gregory C.%Ghahramani%NULL%2,           Ajay%Premkumar%NULL%2,           Chris J.%DeFrancesco%NULL%2,           Jordan A.%Gruskay%NULL%2,           Aleksey%Dvorzhinskiy%NULL%2,           Milan S.%Sandhu%NULL%2,           Elan M.%Goldwyn%NULL%2,           Christopher L.%Mendias%NULL%2,           William M.%Ricci%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Josep Maria%Muñoz Vives%NULL%1,           Montsant%Jornet-Gibert%NULL%2,           Montsant%Jornet-Gibert%NULL%0,           J.%Cámara-Cabrera%NULL%2,           J.%Cámara-Cabrera%NULL%0,           Pedro L.%Esteban%NULL%2,           Pedro L.%Esteban%NULL%0,           Laia%Brunet%NULL%2,           Laia%Brunet%NULL%0,           Luis%Delgado-Flores%NULL%2,           Luis%Delgado-Flores%NULL%0,           P.%Camacho-Carrasco%NULL%2,           P.%Camacho-Carrasco%NULL%0,           P.%Torner%NULL%2,           P.%Torner%NULL%0,           Francesc%Marcano-Fernández%NULL%2,           Francesc%Marcano-Fernández%NULL%0,           NULL%NULL%NULL%0,           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zoe B.%Cheung%zoe.cheung@mountsinai.org%1,           David A.%Forsh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew J.%Hall%xref no email%2,    Nicholas D.%Clement%xref no email%2,    Luke%Farrow%xref no email%2,    Alasdair M. J.%MacLullich%xref no email%2,    Graham F.%Dall%xref no email%2,    Chloe E. H.%Scott%xref no email%2,    Paul J.%Jenkins%xref no email%2,    Timothy O.%White%xref no email%2,    Andrew D.%Duckworth%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Babar%Kayani%xref no email%2,    Elliot%Onochie%xref no email%2,    Vijay%Patil%xref no email%2,    Fahima%Begum%xref no email%2,    Rory%Cuthbert%xref no email%2,    David%Ferguson%xref no email%2,    Jagmeet S.%Bhamra%xref no email%2,    Aadhar%Sharma%xref no email%2,    Peter%Bates%xref no email%2,    Fares S.%Haddad%xref no email%2]</t>
   </si>
 </sst>
 </file>
@@ -681,7 +717,7 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -710,7 +746,7 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -739,7 +775,7 @@
         <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="F4" t="s">
         <v>33</v>
@@ -768,7 +804,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
         <v>38</v>
@@ -797,7 +833,7 @@
         <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -826,7 +862,7 @@
         <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>

--- a/Covid_19_Dataset_and_References/References/92.xlsx
+++ b/Covid_19_Dataset_and_References/References/92.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="110">
   <si>
     <t>Doi</t>
   </si>
@@ -369,6 +369,42 @@
   </si>
   <si>
     <t>[Babar%Kayani%xref no email%2,    Elliot%Onochie%xref no email%2,    Vijay%Patil%xref no email%2,    Fahima%Begum%xref no email%2,    Rory%Cuthbert%xref no email%2,    David%Ferguson%xref no email%2,    Jagmeet S.%Bhamra%xref no email%2,    Aadhar%Sharma%xref no email%2,    Peter%Bates%xref no email%2,    Fares S.%Haddad%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Kenneth A.%Egol%NULL%2,            Sanjit R.%Konda%NULL%2,            Mackenzie L.%Bird%NULL%2,            Nicket%Dedhia%NULL%2,            Emma K.%Landes%NULL%2,            Rachel A.%Ranson%NULL%2,            Sara J.%Solasz%NULL%2,            Vinay K.%Aggarwal%NULL%2,            Joseph A.%Bosco%NULL%2,            David L.%Furgiuele%NULL%2,            Abhishek%Ganta%NULL%2,            Jason%Gould%NULL%2,            Thomas R.%Lyon%NULL%2,            Toni M.%McLaurin%NULL%2,            Nirmal C.%Tejwani%NULL%2,            Joseph D.%Zuckerman%NULL%2,            Philipp%Leucht%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Drake G.%LeBrun%NULL%2,            Maxwell A.%Konnaris%NULL%2,            Gregory C.%Ghahramani%NULL%2,            Ajay%Premkumar%NULL%2,            Chris J.%DeFrancesco%NULL%2,            Jordan A.%Gruskay%NULL%2,            Aleksey%Dvorzhinskiy%NULL%2,            Milan S.%Sandhu%NULL%2,            Elan M.%Goldwyn%NULL%2,            Christopher L.%Mendias%NULL%2,            William M.%Ricci%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Josep Maria%Muñoz Vives%NULL%1,            Montsant%Jornet-Gibert%NULL%2,            Montsant%Jornet-Gibert%NULL%0,            J.%Cámara-Cabrera%NULL%2,            J.%Cámara-Cabrera%NULL%0,            Pedro L.%Esteban%NULL%2,            Pedro L.%Esteban%NULL%0,            Laia%Brunet%NULL%2,            Laia%Brunet%NULL%0,            Luis%Delgado-Flores%NULL%2,            Luis%Delgado-Flores%NULL%0,            P.%Camacho-Carrasco%NULL%2,            P.%Camacho-Carrasco%NULL%0,            P.%Torner%NULL%2,            P.%Torner%NULL%0,            Francesc%Marcano-Fernández%NULL%2,            Francesc%Marcano-Fernández%NULL%0,            NULL%NULL%NULL%0,            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zoe B.%Cheung%zoe.cheung@mountsinai.org%1,            David A.%Forsh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew J.%Hall%xref no email%2,     Nicholas D.%Clement%xref no email%2,     Luke%Farrow%xref no email%2,     Alasdair M. J.%MacLullich%xref no email%2,     Graham F.%Dall%xref no email%2,     Chloe E. H.%Scott%xref no email%2,     Paul J.%Jenkins%xref no email%2,     Timothy O.%White%xref no email%2,     Andrew D.%Duckworth%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Babar%Kayani%xref no email%2,     Elliot%Onochie%xref no email%2,     Vijay%Patil%xref no email%2,     Fahima%Begum%xref no email%2,     Rory%Cuthbert%xref no email%2,     David%Ferguson%xref no email%2,     Jagmeet S.%Bhamra%xref no email%2,     Aadhar%Sharma%xref no email%2,     Peter%Bates%xref no email%2,     Fares S.%Haddad%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Kenneth A.%Egol%NULL%2,             Sanjit R.%Konda%NULL%2,             Mackenzie L.%Bird%NULL%2,             Nicket%Dedhia%NULL%2,             Emma K.%Landes%NULL%2,             Rachel A.%Ranson%NULL%2,             Sara J.%Solasz%NULL%2,             Vinay K.%Aggarwal%NULL%2,             Joseph A.%Bosco%NULL%2,             David L.%Furgiuele%NULL%2,             Abhishek%Ganta%NULL%2,             Jason%Gould%NULL%2,             Thomas R.%Lyon%NULL%2,             Toni M.%McLaurin%NULL%2,             Nirmal C.%Tejwani%NULL%2,             Joseph D.%Zuckerman%NULL%2,             Philipp%Leucht%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Drake G.%LeBrun%NULL%2,             Maxwell A.%Konnaris%NULL%2,             Gregory C.%Ghahramani%NULL%2,             Ajay%Premkumar%NULL%2,             Chris J.%DeFrancesco%NULL%2,             Jordan A.%Gruskay%NULL%2,             Aleksey%Dvorzhinskiy%NULL%2,             Milan S.%Sandhu%NULL%2,             Elan M.%Goldwyn%NULL%2,             Christopher L.%Mendias%NULL%2,             William M.%Ricci%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Josep Maria%Muñoz Vives%NULL%1,             Montsant%Jornet-Gibert%NULL%2,             Montsant%Jornet-Gibert%NULL%0,             J.%Cámara-Cabrera%NULL%2,             J.%Cámara-Cabrera%NULL%0,             Pedro L.%Esteban%NULL%2,             Pedro L.%Esteban%NULL%0,             Laia%Brunet%NULL%2,             Laia%Brunet%NULL%0,             Luis%Delgado-Flores%NULL%2,             Luis%Delgado-Flores%NULL%0,             P.%Camacho-Carrasco%NULL%2,             P.%Camacho-Carrasco%NULL%0,             P.%Torner%NULL%2,             P.%Torner%NULL%0,             Francesc%Marcano-Fernández%NULL%2,             Francesc%Marcano-Fernández%NULL%0,             NULL%NULL%NULL%0,             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zoe B.%Cheung%zoe.cheung@mountsinai.org%1,             David A.%Forsh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew J.%Hall%xref no email%2,      Nicholas D.%Clement%xref no email%2,      Luke%Farrow%xref no email%2,      Alasdair M. J.%MacLullich%xref no email%2,      Graham F.%Dall%xref no email%2,      Chloe E. H.%Scott%xref no email%2,      Paul J.%Jenkins%xref no email%2,      Timothy O.%White%xref no email%2,      Andrew D.%Duckworth%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Babar%Kayani%xref no email%2,      Elliot%Onochie%xref no email%2,      Vijay%Patil%xref no email%2,      Fahima%Begum%xref no email%2,      Rory%Cuthbert%xref no email%2,      David%Ferguson%xref no email%2,      Jagmeet S.%Bhamra%xref no email%2,      Aadhar%Sharma%xref no email%2,      Peter%Bates%xref no email%2,      Fares S.%Haddad%xref no email%2]</t>
   </si>
 </sst>
 </file>
@@ -717,7 +753,7 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -746,7 +782,7 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -775,7 +811,7 @@
         <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="F4" t="s">
         <v>33</v>
@@ -804,7 +840,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="F5" t="s">
         <v>38</v>
@@ -833,7 +869,7 @@
         <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -862,7 +898,7 @@
         <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>

--- a/Covid_19_Dataset_and_References/References/92.xlsx
+++ b/Covid_19_Dataset_and_References/References/92.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="116">
   <si>
     <t>Doi</t>
   </si>
@@ -405,6 +405,24 @@
   </si>
   <si>
     <t>[Babar%Kayani%xref no email%2,      Elliot%Onochie%xref no email%2,      Vijay%Patil%xref no email%2,      Fahima%Begum%xref no email%2,      Rory%Cuthbert%xref no email%2,      David%Ferguson%xref no email%2,      Jagmeet S.%Bhamra%xref no email%2,      Aadhar%Sharma%xref no email%2,      Peter%Bates%xref no email%2,      Fares S.%Haddad%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Kenneth A.%Egol%NULL%2,              Sanjit R.%Konda%NULL%2,              Mackenzie L.%Bird%NULL%2,              Nicket%Dedhia%NULL%2,              Emma K.%Landes%NULL%2,              Rachel A.%Ranson%NULL%2,              Sara J.%Solasz%NULL%2,              Vinay K.%Aggarwal%NULL%2,              Joseph A.%Bosco%NULL%2,              David L.%Furgiuele%NULL%2,              Abhishek%Ganta%NULL%2,              Jason%Gould%NULL%2,              Thomas R.%Lyon%NULL%2,              Toni M.%McLaurin%NULL%2,              Nirmal C.%Tejwani%NULL%2,              Joseph D.%Zuckerman%NULL%2,              Philipp%Leucht%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Drake G.%LeBrun%NULL%2,              Maxwell A.%Konnaris%NULL%2,              Gregory C.%Ghahramani%NULL%2,              Ajay%Premkumar%NULL%2,              Chris J.%DeFrancesco%NULL%2,              Jordan A.%Gruskay%NULL%2,              Aleksey%Dvorzhinskiy%NULL%2,              Milan S.%Sandhu%NULL%2,              Elan M.%Goldwyn%NULL%2,              Christopher L.%Mendias%NULL%2,              William M.%Ricci%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Josep Maria%Muñoz Vives%NULL%1,              Montsant%Jornet-Gibert%NULL%2,              Montsant%Jornet-Gibert%NULL%0,              J.%Cámara-Cabrera%NULL%2,              J.%Cámara-Cabrera%NULL%0,              Pedro L.%Esteban%NULL%2,              Pedro L.%Esteban%NULL%0,              Laia%Brunet%NULL%2,              Laia%Brunet%NULL%0,              Luis%Delgado-Flores%NULL%2,              Luis%Delgado-Flores%NULL%0,              P.%Camacho-Carrasco%NULL%2,              P.%Camacho-Carrasco%NULL%0,              P.%Torner%NULL%2,              P.%Torner%NULL%0,              Francesc%Marcano-Fernández%NULL%2,              Francesc%Marcano-Fernández%NULL%0,              NULL%NULL%NULL%0,              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zoe B.%Cheung%zoe.cheung@mountsinai.org%1,              David A.%Forsh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew J.%Hall%xref no email%2,       Nicholas D.%Clement%xref no email%2,       Luke%Farrow%xref no email%2,       Alasdair M. J.%MacLullich%xref no email%2,       Graham F.%Dall%xref no email%2,       Chloe E. H.%Scott%xref no email%2,       Paul J.%Jenkins%xref no email%2,       Timothy O.%White%xref no email%2,       Andrew D.%Duckworth%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Babar%Kayani%xref no email%2,       Elliot%Onochie%xref no email%2,       Vijay%Patil%xref no email%2,       Fahima%Begum%xref no email%2,       Rory%Cuthbert%xref no email%2,       David%Ferguson%xref no email%2,       Jagmeet S.%Bhamra%xref no email%2,       Aadhar%Sharma%xref no email%2,       Peter%Bates%xref no email%2,       Fares S.%Haddad%xref no email%2]</t>
   </si>
 </sst>
 </file>
@@ -753,7 +771,7 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -782,7 +800,7 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -811,7 +829,7 @@
         <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F4" t="s">
         <v>33</v>
@@ -840,7 +858,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F5" t="s">
         <v>38</v>
@@ -869,7 +887,7 @@
         <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -898,7 +916,7 @@
         <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>

--- a/Covid_19_Dataset_and_References/References/92.xlsx
+++ b/Covid_19_Dataset_and_References/References/92.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="122">
   <si>
     <t>Doi</t>
   </si>
@@ -423,6 +423,24 @@
   </si>
   <si>
     <t>[Babar%Kayani%xref no email%2,       Elliot%Onochie%xref no email%2,       Vijay%Patil%xref no email%2,       Fahima%Begum%xref no email%2,       Rory%Cuthbert%xref no email%2,       David%Ferguson%xref no email%2,       Jagmeet S.%Bhamra%xref no email%2,       Aadhar%Sharma%xref no email%2,       Peter%Bates%xref no email%2,       Fares S.%Haddad%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Kenneth A.%Egol%NULL%2,               Sanjit R.%Konda%NULL%2,               Mackenzie L.%Bird%NULL%2,               Nicket%Dedhia%NULL%2,               Emma K.%Landes%NULL%2,               Rachel A.%Ranson%NULL%2,               Sara J.%Solasz%NULL%2,               Vinay K.%Aggarwal%NULL%2,               Joseph A.%Bosco%NULL%2,               David L.%Furgiuele%NULL%2,               Abhishek%Ganta%NULL%2,               Jason%Gould%NULL%2,               Thomas R.%Lyon%NULL%2,               Toni M.%McLaurin%NULL%2,               Nirmal C.%Tejwani%NULL%2,               Joseph D.%Zuckerman%NULL%2,               Philipp%Leucht%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Drake G.%LeBrun%NULL%2,               Maxwell A.%Konnaris%NULL%2,               Gregory C.%Ghahramani%NULL%2,               Ajay%Premkumar%NULL%2,               Chris J.%DeFrancesco%NULL%2,               Jordan A.%Gruskay%NULL%2,               Aleksey%Dvorzhinskiy%NULL%2,               Milan S.%Sandhu%NULL%2,               Elan M.%Goldwyn%NULL%2,               Christopher L.%Mendias%NULL%2,               William M.%Ricci%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Josep Maria%Muñoz Vives%NULL%1,               Montsant%Jornet-Gibert%NULL%2,               Montsant%Jornet-Gibert%NULL%0,               J.%Cámara-Cabrera%NULL%2,               J.%Cámara-Cabrera%NULL%0,               Pedro L.%Esteban%NULL%2,               Pedro L.%Esteban%NULL%0,               Laia%Brunet%NULL%2,               Laia%Brunet%NULL%0,               Luis%Delgado-Flores%NULL%2,               Luis%Delgado-Flores%NULL%0,               P.%Camacho-Carrasco%NULL%2,               P.%Camacho-Carrasco%NULL%0,               P.%Torner%NULL%2,               P.%Torner%NULL%0,               Francesc%Marcano-Fernández%NULL%2,               Francesc%Marcano-Fernández%NULL%0,               NULL%NULL%NULL%0,               NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zoe B.%Cheung%zoe.cheung@mountsinai.org%1,               David A.%Forsh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew J.%Hall%xref no email%2,        Nicholas D.%Clement%xref no email%2,        Luke%Farrow%xref no email%2,        Alasdair M. J.%MacLullich%xref no email%2,        Graham F.%Dall%xref no email%2,        Chloe E. H.%Scott%xref no email%2,        Paul J.%Jenkins%xref no email%2,        Timothy O.%White%xref no email%2,        Andrew D.%Duckworth%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Babar%Kayani%xref no email%2,        Elliot%Onochie%xref no email%2,        Vijay%Patil%xref no email%2,        Fahima%Begum%xref no email%2,        Rory%Cuthbert%xref no email%2,        David%Ferguson%xref no email%2,        Jagmeet S.%Bhamra%xref no email%2,        Aadhar%Sharma%xref no email%2,        Peter%Bates%xref no email%2,        Fares S.%Haddad%xref no email%2]</t>
   </si>
 </sst>
 </file>
@@ -771,7 +789,7 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -800,7 +818,7 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -829,7 +847,7 @@
         <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F4" t="s">
         <v>33</v>
@@ -858,7 +876,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="F5" t="s">
         <v>38</v>
@@ -887,7 +905,7 @@
         <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -916,7 +934,7 @@
         <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>

--- a/Covid_19_Dataset_and_References/References/92.xlsx
+++ b/Covid_19_Dataset_and_References/References/92.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="134">
   <si>
     <t>Doi</t>
   </si>
@@ -441,6 +441,42 @@
   </si>
   <si>
     <t>[Babar%Kayani%xref no email%2,        Elliot%Onochie%xref no email%2,        Vijay%Patil%xref no email%2,        Fahima%Begum%xref no email%2,        Rory%Cuthbert%xref no email%2,        David%Ferguson%xref no email%2,        Jagmeet S.%Bhamra%xref no email%2,        Aadhar%Sharma%xref no email%2,        Peter%Bates%xref no email%2,        Fares S.%Haddad%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Kenneth A.%Egol%NULL%2,                Sanjit R.%Konda%NULL%2,                Mackenzie L.%Bird%NULL%2,                Nicket%Dedhia%NULL%2,                Emma K.%Landes%NULL%2,                Rachel A.%Ranson%NULL%2,                Sara J.%Solasz%NULL%2,                Vinay K.%Aggarwal%NULL%2,                Joseph A.%Bosco%NULL%2,                David L.%Furgiuele%NULL%2,                Abhishek%Ganta%NULL%2,                Jason%Gould%NULL%2,                Thomas R.%Lyon%NULL%2,                Toni M.%McLaurin%NULL%2,                Nirmal C.%Tejwani%NULL%2,                Joseph D.%Zuckerman%NULL%2,                Philipp%Leucht%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Drake G.%LeBrun%NULL%2,                Maxwell A.%Konnaris%NULL%2,                Gregory C.%Ghahramani%NULL%2,                Ajay%Premkumar%NULL%2,                Chris J.%DeFrancesco%NULL%2,                Jordan A.%Gruskay%NULL%2,                Aleksey%Dvorzhinskiy%NULL%2,                Milan S.%Sandhu%NULL%2,                Elan M.%Goldwyn%NULL%2,                Christopher L.%Mendias%NULL%2,                William M.%Ricci%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Josep Maria%Muñoz Vives%NULL%1,                Montsant%Jornet-Gibert%NULL%2,                Montsant%Jornet-Gibert%NULL%0,                J.%Cámara-Cabrera%NULL%2,                J.%Cámara-Cabrera%NULL%0,                Pedro L.%Esteban%NULL%2,                Pedro L.%Esteban%NULL%0,                Laia%Brunet%NULL%2,                Laia%Brunet%NULL%0,                Luis%Delgado-Flores%NULL%2,                Luis%Delgado-Flores%NULL%0,                P.%Camacho-Carrasco%NULL%2,                P.%Camacho-Carrasco%NULL%0,                P.%Torner%NULL%2,                P.%Torner%NULL%0,                Francesc%Marcano-Fernández%NULL%2,                Francesc%Marcano-Fernández%NULL%0,                NULL%NULL%NULL%0,                NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zoe B.%Cheung%zoe.cheung@mountsinai.org%1,                David A.%Forsh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew J.%Hall%xref no email%2,         Nicholas D.%Clement%xref no email%2,         Luke%Farrow%xref no email%2,         Alasdair M. J.%MacLullich%xref no email%2,         Graham F.%Dall%xref no email%2,         Chloe E. H.%Scott%xref no email%2,         Paul J.%Jenkins%xref no email%2,         Timothy O.%White%xref no email%2,         Andrew D.%Duckworth%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Babar%Kayani%xref no email%2,         Elliot%Onochie%xref no email%2,         Vijay%Patil%xref no email%2,         Fahima%Begum%xref no email%2,         Rory%Cuthbert%xref no email%2,         David%Ferguson%xref no email%2,         Jagmeet S.%Bhamra%xref no email%2,         Aadhar%Sharma%xref no email%2,         Peter%Bates%xref no email%2,         Fares S.%Haddad%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Kenneth A.%Egol%NULL%2,                 Sanjit R.%Konda%NULL%2,                 Mackenzie L.%Bird%NULL%2,                 Nicket%Dedhia%NULL%2,                 Emma K.%Landes%NULL%2,                 Rachel A.%Ranson%NULL%2,                 Sara J.%Solasz%NULL%2,                 Vinay K.%Aggarwal%NULL%2,                 Joseph A.%Bosco%NULL%2,                 David L.%Furgiuele%NULL%2,                 Abhishek%Ganta%NULL%2,                 Jason%Gould%NULL%2,                 Thomas R.%Lyon%NULL%2,                 Toni M.%McLaurin%NULL%2,                 Nirmal C.%Tejwani%NULL%2,                 Joseph D.%Zuckerman%NULL%2,                 Philipp%Leucht%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Drake G.%LeBrun%NULL%2,                 Maxwell A.%Konnaris%NULL%2,                 Gregory C.%Ghahramani%NULL%2,                 Ajay%Premkumar%NULL%2,                 Chris J.%DeFrancesco%NULL%2,                 Jordan A.%Gruskay%NULL%2,                 Aleksey%Dvorzhinskiy%NULL%2,                 Milan S.%Sandhu%NULL%2,                 Elan M.%Goldwyn%NULL%2,                 Christopher L.%Mendias%NULL%2,                 William M.%Ricci%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Josep Maria%Muñoz Vives%NULL%1,                 Montsant%Jornet-Gibert%NULL%2,                 Montsant%Jornet-Gibert%NULL%0,                 J.%Cámara-Cabrera%NULL%2,                 J.%Cámara-Cabrera%NULL%0,                 Pedro L.%Esteban%NULL%2,                 Pedro L.%Esteban%NULL%0,                 Laia%Brunet%NULL%2,                 Laia%Brunet%NULL%0,                 Luis%Delgado-Flores%NULL%2,                 Luis%Delgado-Flores%NULL%0,                 P.%Camacho-Carrasco%NULL%2,                 P.%Camacho-Carrasco%NULL%0,                 P.%Torner%NULL%2,                 P.%Torner%NULL%0,                 Francesc%Marcano-Fernández%NULL%2,                 Francesc%Marcano-Fernández%NULL%0,                 NULL%NULL%NULL%0,                 NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zoe B.%Cheung%zoe.cheung@mountsinai.org%1,                 David A.%Forsh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew J.%Hall%xref no email%2,          Nicholas D.%Clement%xref no email%2,          Luke%Farrow%xref no email%2,          Alasdair M. J.%MacLullich%xref no email%2,          Graham F.%Dall%xref no email%2,          Chloe E. H.%Scott%xref no email%2,          Paul J.%Jenkins%xref no email%2,          Timothy O.%White%xref no email%2,          Andrew D.%Duckworth%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Babar%Kayani%xref no email%2,          Elliot%Onochie%xref no email%2,          Vijay%Patil%xref no email%2,          Fahima%Begum%xref no email%2,          Rory%Cuthbert%xref no email%2,          David%Ferguson%xref no email%2,          Jagmeet S.%Bhamra%xref no email%2,          Aadhar%Sharma%xref no email%2,          Peter%Bates%xref no email%2,          Fares S.%Haddad%xref no email%2]</t>
   </si>
 </sst>
 </file>
@@ -789,7 +825,7 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -818,7 +854,7 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -847,7 +883,7 @@
         <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="F4" t="s">
         <v>33</v>
@@ -876,7 +912,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="F5" t="s">
         <v>38</v>
@@ -905,7 +941,7 @@
         <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -934,7 +970,7 @@
         <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>

--- a/Covid_19_Dataset_and_References/References/92.xlsx
+++ b/Covid_19_Dataset_and_References/References/92.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="140">
   <si>
     <t>Doi</t>
   </si>
@@ -477,6 +477,24 @@
   </si>
   <si>
     <t>[Babar%Kayani%xref no email%2,          Elliot%Onochie%xref no email%2,          Vijay%Patil%xref no email%2,          Fahima%Begum%xref no email%2,          Rory%Cuthbert%xref no email%2,          David%Ferguson%xref no email%2,          Jagmeet S.%Bhamra%xref no email%2,          Aadhar%Sharma%xref no email%2,          Peter%Bates%xref no email%2,          Fares S.%Haddad%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Kenneth A.%Egol%NULL%2,                  Sanjit R.%Konda%NULL%2,                  Mackenzie L.%Bird%NULL%2,                  Nicket%Dedhia%NULL%2,                  Emma K.%Landes%NULL%2,                  Rachel A.%Ranson%NULL%2,                  Sara J.%Solasz%NULL%2,                  Vinay K.%Aggarwal%NULL%2,                  Joseph A.%Bosco%NULL%2,                  David L.%Furgiuele%NULL%2,                  Abhishek%Ganta%NULL%2,                  Jason%Gould%NULL%2,                  Thomas R.%Lyon%NULL%2,                  Toni M.%McLaurin%NULL%2,                  Nirmal C.%Tejwani%NULL%2,                  Joseph D.%Zuckerman%NULL%2,                  Philipp%Leucht%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Drake G.%LeBrun%NULL%2,                  Maxwell A.%Konnaris%NULL%2,                  Gregory C.%Ghahramani%NULL%2,                  Ajay%Premkumar%NULL%2,                  Chris J.%DeFrancesco%NULL%2,                  Jordan A.%Gruskay%NULL%2,                  Aleksey%Dvorzhinskiy%NULL%2,                  Milan S.%Sandhu%NULL%2,                  Elan M.%Goldwyn%NULL%2,                  Christopher L.%Mendias%NULL%2,                  William M.%Ricci%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Josep Maria%Muñoz Vives%NULL%1,                  Montsant%Jornet-Gibert%NULL%2,                  Montsant%Jornet-Gibert%NULL%0,                  J.%Cámara-Cabrera%NULL%2,                  J.%Cámara-Cabrera%NULL%0,                  Pedro L.%Esteban%NULL%2,                  Pedro L.%Esteban%NULL%0,                  Laia%Brunet%NULL%2,                  Laia%Brunet%NULL%0,                  Luis%Delgado-Flores%NULL%2,                  Luis%Delgado-Flores%NULL%0,                  P.%Camacho-Carrasco%NULL%2,                  P.%Camacho-Carrasco%NULL%0,                  P.%Torner%NULL%2,                  P.%Torner%NULL%0,                  Francesc%Marcano-Fernández%NULL%2,                  Francesc%Marcano-Fernández%NULL%0,                  NULL%NULL%NULL%0,                  NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zoe B.%Cheung%zoe.cheung@mountsinai.org%1,                  David A.%Forsh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew J.%Hall%xref no email%2,           Nicholas D.%Clement%xref no email%2,           Luke%Farrow%xref no email%2,           Alasdair M. J.%MacLullich%xref no email%2,           Graham F.%Dall%xref no email%2,           Chloe E. H.%Scott%xref no email%2,           Paul J.%Jenkins%xref no email%2,           Timothy O.%White%xref no email%2,           Andrew D.%Duckworth%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Babar%Kayani%xref no email%2,           Elliot%Onochie%xref no email%2,           Vijay%Patil%xref no email%2,           Fahima%Begum%xref no email%2,           Rory%Cuthbert%xref no email%2,           David%Ferguson%xref no email%2,           Jagmeet S.%Bhamra%xref no email%2,           Aadhar%Sharma%xref no email%2,           Peter%Bates%xref no email%2,           Fares S.%Haddad%xref no email%2]</t>
   </si>
 </sst>
 </file>
@@ -825,7 +843,7 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -854,7 +872,7 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -883,7 +901,7 @@
         <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F4" t="s">
         <v>33</v>
@@ -912,7 +930,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F5" t="s">
         <v>38</v>
@@ -941,7 +959,7 @@
         <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -970,7 +988,7 @@
         <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>

--- a/Covid_19_Dataset_and_References/References/92.xlsx
+++ b/Covid_19_Dataset_and_References/References/92.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="149">
   <si>
     <t>Doi</t>
   </si>
@@ -495,6 +495,33 @@
   </si>
   <si>
     <t>[Babar%Kayani%xref no email%2,           Elliot%Onochie%xref no email%2,           Vijay%Patil%xref no email%2,           Fahima%Begum%xref no email%2,           Rory%Cuthbert%xref no email%2,           David%Ferguson%xref no email%2,           Jagmeet S.%Bhamra%xref no email%2,           Aadhar%Sharma%xref no email%2,           Peter%Bates%xref no email%2,           Fares S.%Haddad%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Kenneth A.%Egol%NULL%2,                   Sanjit R.%Konda%NULL%2,                   Mackenzie L.%Bird%NULL%2,                   Nicket%Dedhia%NULL%2,                   Emma K.%Landes%NULL%2,                   Rachel A.%Ranson%NULL%2,                   Sara J.%Solasz%NULL%2,                   Vinay K.%Aggarwal%NULL%2,                   Joseph A.%Bosco%NULL%2,                   David L.%Furgiuele%NULL%2,                   Abhishek%Ganta%NULL%2,                   Jason%Gould%NULL%2,                   Thomas R.%Lyon%NULL%2,                   Toni M.%McLaurin%NULL%2,                   Nirmal C.%Tejwani%NULL%2,                   Joseph D.%Zuckerman%NULL%2,                   Philipp%Leucht%NULL%2]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Drake G.%LeBrun%NULL%2,                   Maxwell A.%Konnaris%NULL%2,                   Gregory C.%Ghahramani%NULL%2,                   Ajay%Premkumar%NULL%2,                   Chris J.%DeFrancesco%NULL%2,                   Jordan A.%Gruskay%NULL%2,                   Aleksey%Dvorzhinskiy%NULL%2,                   Milan S.%Sandhu%NULL%2,                   Elan M.%Goldwyn%NULL%2,                   Christopher L.%Mendias%NULL%2,                   William M.%Ricci%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Josep Maria%Muñoz Vives%NULL%1,                   Montsant%Jornet-Gibert%NULL%2,                   Montsant%Jornet-Gibert%NULL%0,                   J.%Cámara-Cabrera%NULL%2,                   J.%Cámara-Cabrera%NULL%0,                   Pedro L.%Esteban%NULL%2,                   Pedro L.%Esteban%NULL%0,                   Laia%Brunet%NULL%2,                   Laia%Brunet%NULL%0,                   Luis%Delgado-Flores%NULL%2,                   Luis%Delgado-Flores%NULL%0,                   P.%Camacho-Carrasco%NULL%2,                   P.%Camacho-Carrasco%NULL%0,                   P.%Torner%NULL%2,                   P.%Torner%NULL%0,                   Francesc%Marcano-Fernández%NULL%2,                   Francesc%Marcano-Fernández%NULL%0,                   NULL%NULL%NULL%0,                   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zoe B.%Cheung%zoe.cheung@mountsinai.org%1,                   David A.%Forsh%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Andrew J.%Hall%xref no email%2,            Nicholas D.%Clement%xref no email%2,            Luke%Farrow%xref no email%2,            Alasdair M. J.%MacLullich%xref no email%2,            Graham F.%Dall%xref no email%2,            Chloe E. H.%Scott%xref no email%2,            Paul J.%Jenkins%xref no email%2,            Timothy O.%White%xref no email%2,            Andrew D.%Duckworth%xref no email%2]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Babar%Kayani%xref no email%2,            Elliot%Onochie%xref no email%2,            Vijay%Patil%xref no email%2,            Fahima%Begum%xref no email%2,            Rory%Cuthbert%xref no email%2,            David%Ferguson%xref no email%2,            Jagmeet S.%Bhamra%xref no email%2,            Aadhar%Sharma%xref no email%2,            Peter%Bates%xref no email%2,            Fares S.%Haddad%xref no email%2]</t>
   </si>
 </sst>
 </file>
@@ -843,7 +870,7 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -855,7 +882,7 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>50</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3">
@@ -872,7 +899,7 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -884,7 +911,7 @@
         <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>50</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4">
@@ -901,7 +928,7 @@
         <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="F4" t="s">
         <v>33</v>
@@ -913,7 +940,7 @@
         <v>34</v>
       </c>
       <c r="I4" t="s">
-        <v>50</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5">
@@ -930,7 +957,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="F5" t="s">
         <v>38</v>
@@ -942,7 +969,7 @@
         <v>39</v>
       </c>
       <c r="I5" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6">
@@ -959,7 +986,7 @@
         <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -971,7 +998,7 @@
         <v>76</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7">
@@ -988,7 +1015,7 @@
         <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
@@ -1000,7 +1027,7 @@
         <v>76</v>
       </c>
       <c r="I7" t="s">
-        <v>55</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/92.xlsx
+++ b/Covid_19_Dataset_and_References/References/92.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="155">
   <si>
     <t>Doi</t>
   </si>
@@ -522,6 +522,24 @@
   </si>
   <si>
     <t>[Babar%Kayani%xref no email%2,            Elliot%Onochie%xref no email%2,            Vijay%Patil%xref no email%2,            Fahima%Begum%xref no email%2,            Rory%Cuthbert%xref no email%2,            David%Ferguson%xref no email%2,            Jagmeet S.%Bhamra%xref no email%2,            Aadhar%Sharma%xref no email%2,            Peter%Bates%xref no email%2,            Fares S.%Haddad%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Kenneth A.%Egol%NULL%2,                    Sanjit R.%Konda%NULL%2,                    Mackenzie L.%Bird%NULL%2,                    Nicket%Dedhia%NULL%2,                    Emma K.%Landes%NULL%2,                    Rachel A.%Ranson%NULL%2,                    Sara J.%Solasz%NULL%2,                    Vinay K.%Aggarwal%NULL%2,                    Joseph A.%Bosco%NULL%2,                    David L.%Furgiuele%NULL%2,                    Abhishek%Ganta%NULL%2,                    Jason%Gould%NULL%2,                    Thomas R.%Lyon%NULL%2,                    Toni M.%McLaurin%NULL%2,                    Nirmal C.%Tejwani%NULL%2,                    Joseph D.%Zuckerman%NULL%2,                    Philipp%Leucht%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Drake G.%LeBrun%NULL%2,                    Maxwell A.%Konnaris%NULL%2,                    Gregory C.%Ghahramani%NULL%2,                    Ajay%Premkumar%NULL%2,                    Chris J.%DeFrancesco%NULL%2,                    Jordan A.%Gruskay%NULL%2,                    Aleksey%Dvorzhinskiy%NULL%2,                    Milan S.%Sandhu%NULL%2,                    Elan M.%Goldwyn%NULL%2,                    Christopher L.%Mendias%NULL%2,                    William M.%Ricci%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Josep Maria%Muñoz Vives%NULL%1,                    Montsant%Jornet-Gibert%NULL%2,                    Montsant%Jornet-Gibert%NULL%0,                    J.%Cámara-Cabrera%NULL%2,                    J.%Cámara-Cabrera%NULL%0,                    Pedro L.%Esteban%NULL%2,                    Pedro L.%Esteban%NULL%0,                    Laia%Brunet%NULL%2,                    Laia%Brunet%NULL%0,                    Luis%Delgado-Flores%NULL%2,                    Luis%Delgado-Flores%NULL%0,                    P.%Camacho-Carrasco%NULL%2,                    P.%Camacho-Carrasco%NULL%0,                    P.%Torner%NULL%2,                    P.%Torner%NULL%0,                    Francesc%Marcano-Fernández%NULL%2,                    Francesc%Marcano-Fernández%NULL%0,                    NULL%NULL%NULL%0,                    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zoe B.%Cheung%zoe.cheung@mountsinai.org%1,                    David A.%Forsh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew J.%Hall%xref no email%2,             Nicholas D.%Clement%xref no email%2,             Luke%Farrow%xref no email%2,             Alasdair M. J.%MacLullich%xref no email%2,             Graham F.%Dall%xref no email%2,             Chloe E. H.%Scott%xref no email%2,             Paul J.%Jenkins%xref no email%2,             Timothy O.%White%xref no email%2,             Andrew D.%Duckworth%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Babar%Kayani%xref no email%2,             Elliot%Onochie%xref no email%2,             Vijay%Patil%xref no email%2,             Fahima%Begum%xref no email%2,             Rory%Cuthbert%xref no email%2,             David%Ferguson%xref no email%2,             Jagmeet S.%Bhamra%xref no email%2,             Aadhar%Sharma%xref no email%2,             Peter%Bates%xref no email%2,             Fares S.%Haddad%xref no email%2]</t>
   </si>
 </sst>
 </file>
@@ -870,7 +888,7 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -899,7 +917,7 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -928,7 +946,7 @@
         <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="F4" t="s">
         <v>33</v>
@@ -957,7 +975,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="F5" t="s">
         <v>38</v>
@@ -986,7 +1004,7 @@
         <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -1015,7 +1033,7 @@
         <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>

--- a/Covid_19_Dataset_and_References/References/92.xlsx
+++ b/Covid_19_Dataset_and_References/References/92.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="180">
   <si>
     <t>Doi</t>
   </si>
@@ -540,6 +540,81 @@
   </si>
   <si>
     <t>[Babar%Kayani%xref no email%2,             Elliot%Onochie%xref no email%2,             Vijay%Patil%xref no email%2,             Fahima%Begum%xref no email%2,             Rory%Cuthbert%xref no email%2,             David%Ferguson%xref no email%2,             Jagmeet S.%Bhamra%xref no email%2,             Aadhar%Sharma%xref no email%2,             Peter%Bates%xref no email%2,             Fares S.%Haddad%xref no email%2]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Kenneth A.%Egol%NULL%2,                     Sanjit R.%Konda%NULL%2,                     Mackenzie L.%Bird%NULL%2,                     Nicket%Dedhia%NULL%2,                     Emma K.%Landes%NULL%2,                     Rachel A.%Ranson%NULL%2,                     Sara J.%Solasz%NULL%2,                     Vinay K.%Aggarwal%NULL%2,                     Joseph A.%Bosco%NULL%2,                     David L.%Furgiuele%NULL%2,                     Abhishek%Ganta%NULL%2,                     Jason%Gould%NULL%2,                     Thomas R.%Lyon%NULL%2,                     Toni M.%McLaurin%NULL%2,                     Nirmal C.%Tejwani%NULL%2,                     Joseph D.%Zuckerman%NULL%2,                     Philipp%Leucht%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Drake G.%LeBrun%NULL%2,                     Maxwell A.%Konnaris%NULL%2,                     Gregory C.%Ghahramani%NULL%2,                     Ajay%Premkumar%NULL%2,                     Chris J.%DeFrancesco%NULL%2,                     Jordan A.%Gruskay%NULL%2,                     Aleksey%Dvorzhinskiy%NULL%2,                     Milan S.%Sandhu%NULL%2,                     Elan M.%Goldwyn%NULL%2,                     Christopher L.%Mendias%NULL%2,                     William M.%Ricci%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Josep Maria%Muñoz Vives%NULL%1,                     Montsant%Jornet-Gibert%NULL%2,                     Montsant%Jornet-Gibert%NULL%0,                     J.%Cámara-Cabrera%NULL%2,                     J.%Cámara-Cabrera%NULL%0,                     Pedro L.%Esteban%NULL%2,                     Pedro L.%Esteban%NULL%0,                     Laia%Brunet%NULL%2,                     Laia%Brunet%NULL%0,                     Luis%Delgado-Flores%NULL%2,                     Luis%Delgado-Flores%NULL%0,                     P.%Camacho-Carrasco%NULL%2,                     P.%Camacho-Carrasco%NULL%0,                     P.%Torner%NULL%2,                     P.%Torner%NULL%0,                     Francesc%Marcano-Fernández%NULL%2,                     Francesc%Marcano-Fernández%NULL%0,                     NULL%NULL%NULL%0,                     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zoe B.%Cheung%zoe.cheung@mountsinai.org%1,                     David A.%Forsh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew J.%Hall%xref no email%0, Nicholas D.%Clement%xref no email%2, Luke%Farrow%xref no email%2, Alasdair M. J.%MacLullich%xref no email%2, Graham F.%Dall%xref no email%2, Chloe E. H.%Scott%xref no email%2, Paul J.%Jenkins%xref no email%2, Timothy O.%White%xref no email%2, Andrew D.%Duckworth%xref no email%2]</t>
+  </si>
+  <si>
+    <t>2023-06-03</t>
+  </si>
+  <si>
+    <t>PUBLISHER: British Editorial Society of Bone &amp; Joint Surgery</t>
+  </si>
+  <si>
+    <t>[Babar%Kayani%xref no email%0, Elliot%Onochie%xref no email%2, Vijay%Patil%xref no email%2, Fahima%Begum%xref no email%2, Rory%Cuthbert%xref no email%2, David%Ferguson%xref no email%2, Jagmeet S.%Bhamra%xref no email%2, Aadhar%Sharma%xref no email%2, Peter%Bates%xref no email%2, Fares S.%Haddad%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Kenneth A.%Egol%NULL%2,                      Sanjit R.%Konda%NULL%2,                      Mackenzie L.%Bird%NULL%2,                      Nicket%Dedhia%NULL%2,                      Emma K.%Landes%NULL%2,                      Rachel A.%Ranson%NULL%2,                      Sara J.%Solasz%NULL%2,                      Vinay K.%Aggarwal%NULL%2,                      Joseph A.%Bosco%NULL%2,                      David L.%Furgiuele%NULL%2,                      Abhishek%Ganta%NULL%2,                      Jason%Gould%NULL%2,                      Thomas R.%Lyon%NULL%2,                      Toni M.%McLaurin%NULL%2,                      Nirmal C.%Tejwani%NULL%2,                      Joseph D.%Zuckerman%NULL%2,                      Philipp%Leucht%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Drake G.%LeBrun%NULL%2,                      Maxwell A.%Konnaris%NULL%2,                      Gregory C.%Ghahramani%NULL%2,                      Ajay%Premkumar%NULL%2,                      Chris J.%DeFrancesco%NULL%2,                      Jordan A.%Gruskay%NULL%2,                      Aleksey%Dvorzhinskiy%NULL%2,                      Milan S.%Sandhu%NULL%2,                      Elan M.%Goldwyn%NULL%2,                      Christopher L.%Mendias%NULL%2,                      William M.%Ricci%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Josep Maria%Muñoz Vives%NULL%1,                      Montsant%Jornet-Gibert%NULL%2,                      Montsant%Jornet-Gibert%NULL%0,                      J.%Cámara-Cabrera%NULL%2,                      J.%Cámara-Cabrera%NULL%0,                      Pedro L.%Esteban%NULL%2,                      Pedro L.%Esteban%NULL%0,                      Laia%Brunet%NULL%2,                      Laia%Brunet%NULL%0,                      Luis%Delgado-Flores%NULL%2,                      Luis%Delgado-Flores%NULL%0,                      P.%Camacho-Carrasco%NULL%2,                      P.%Camacho-Carrasco%NULL%0,                      P.%Torner%NULL%2,                      P.%Torner%NULL%0,                      Francesc%Marcano-Fernández%NULL%2,                      Francesc%Marcano-Fernández%NULL%0,                      NULL%NULL%NULL%0,                      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zoe B.%Cheung%zoe.cheung@mountsinai.org%1,                      David A.%Forsh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth A.%Egol%NULL%2,                       Sanjit R.%Konda%NULL%2,                       Mackenzie L.%Bird%NULL%2,                       Nicket%Dedhia%NULL%2,                       Emma K.%Landes%NULL%2,                       Rachel A.%Ranson%NULL%2,                       Sara J.%Solasz%NULL%2,                       Vinay K.%Aggarwal%NULL%2,                       Joseph A.%Bosco%NULL%2,                       David L.%Furgiuele%NULL%2,                       Abhishek%Ganta%NULL%2,                       Jason%Gould%NULL%2,                       Thomas R.%Lyon%NULL%2,                       Toni M.%McLaurin%NULL%2,                       Nirmal C.%Tejwani%NULL%2,                       Joseph D.%Zuckerman%NULL%2,                       Philipp%Leucht%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Drake G.%LeBrun%NULL%2,                       Maxwell A.%Konnaris%NULL%2,                       Gregory C.%Ghahramani%NULL%2,                       Ajay%Premkumar%NULL%2,                       Chris J.%DeFrancesco%NULL%2,                       Jordan A.%Gruskay%NULL%2,                       Aleksey%Dvorzhinskiy%NULL%2,                       Milan S.%Sandhu%NULL%2,                       Elan M.%Goldwyn%NULL%2,                       Christopher L.%Mendias%NULL%2,                       William M.%Ricci%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Josep Maria%Muñoz Vives%NULL%1,                       Montsant%Jornet-Gibert%NULL%2,                       Montsant%Jornet-Gibert%NULL%0,                       J.%Cámara-Cabrera%NULL%2,                       J.%Cámara-Cabrera%NULL%0,                       Pedro L.%Esteban%NULL%2,                       Pedro L.%Esteban%NULL%0,                       Laia%Brunet%NULL%2,                       Laia%Brunet%NULL%0,                       Luis%Delgado-Flores%NULL%2,                       Luis%Delgado-Flores%NULL%0,                       P.%Camacho-Carrasco%NULL%2,                       P.%Camacho-Carrasco%NULL%0,                       P.%Torner%NULL%2,                       P.%Torner%NULL%0,                       Francesc%Marcano-Fernández%NULL%2,                       Francesc%Marcano-Fernández%NULL%0,                       NULL%NULL%NULL%0,                       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zoe B.%Cheung%zoe.cheung@mountsinai.org%1,                       David A.%Forsh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth A.%Egol%NULL%2,                        Sanjit R.%Konda%NULL%2,                        Mackenzie L.%Bird%NULL%2,                        Nicket%Dedhia%NULL%2,                        Emma K.%Landes%NULL%2,                        Rachel A.%Ranson%NULL%2,                        Sara J.%Solasz%NULL%2,                        Vinay K.%Aggarwal%NULL%2,                        Joseph A.%Bosco%NULL%2,                        David L.%Furgiuele%NULL%2,                        Abhishek%Ganta%NULL%2,                        Jason%Gould%NULL%2,                        Thomas R.%Lyon%NULL%2,                        Toni M.%McLaurin%NULL%2,                        Nirmal C.%Tejwani%NULL%2,                        Joseph D.%Zuckerman%NULL%2,                        Philipp%Leucht%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Drake G.%LeBrun%NULL%2,                        Maxwell A.%Konnaris%NULL%2,                        Gregory C.%Ghahramani%NULL%2,                        Ajay%Premkumar%NULL%2,                        Chris J.%DeFrancesco%NULL%2,                        Jordan A.%Gruskay%NULL%2,                        Aleksey%Dvorzhinskiy%NULL%2,                        Milan S.%Sandhu%NULL%2,                        Elan M.%Goldwyn%NULL%2,                        Christopher L.%Mendias%NULL%2,                        William M.%Ricci%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Josep Maria%Muñoz Vives%NULL%1,                        Montsant%Jornet-Gibert%NULL%2,                        Montsant%Jornet-Gibert%NULL%0,                        J.%Cámara-Cabrera%NULL%2,                        J.%Cámara-Cabrera%NULL%0,                        Pedro L.%Esteban%NULL%2,                        Pedro L.%Esteban%NULL%0,                        Laia%Brunet%NULL%2,                        Laia%Brunet%NULL%0,                        Luis%Delgado-Flores%NULL%2,                        Luis%Delgado-Flores%NULL%0,                        P.%Camacho-Carrasco%NULL%2,                        P.%Camacho-Carrasco%NULL%0,                        P.%Torner%NULL%2,                        P.%Torner%NULL%0,                        Francesc%Marcano-Fernández%NULL%2,                        Francesc%Marcano-Fernández%NULL%0,                        NULL%NULL%NULL%0,                        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zoe B.%Cheung%zoe.cheung@mountsinai.org%1,                        David A.%Forsh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth A.%Egol%NULL%2,                         Sanjit R.%Konda%NULL%2,                         Mackenzie L.%Bird%NULL%2,                         Nicket%Dedhia%NULL%2,                         Emma K.%Landes%NULL%2,                         Rachel A.%Ranson%NULL%2,                         Sara J.%Solasz%NULL%2,                         Vinay K.%Aggarwal%NULL%2,                         Joseph A.%Bosco%NULL%2,                         David L.%Furgiuele%NULL%2,                         Abhishek%Ganta%NULL%2,                         Jason%Gould%NULL%2,                         Thomas R.%Lyon%NULL%2,                         Toni M.%McLaurin%NULL%2,                         Nirmal C.%Tejwani%NULL%2,                         Joseph D.%Zuckerman%NULL%2,                         Philipp%Leucht%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Drake G.%LeBrun%NULL%2,                         Maxwell A.%Konnaris%NULL%2,                         Gregory C.%Ghahramani%NULL%2,                         Ajay%Premkumar%NULL%2,                         Chris J.%DeFrancesco%NULL%2,                         Jordan A.%Gruskay%NULL%2,                         Aleksey%Dvorzhinskiy%NULL%2,                         Milan S.%Sandhu%NULL%2,                         Elan M.%Goldwyn%NULL%2,                         Christopher L.%Mendias%NULL%2,                         William M.%Ricci%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Josep Maria%Muñoz Vives%NULL%1,                         Montsant%Jornet-Gibert%NULL%2,                         Montsant%Jornet-Gibert%NULL%0,                         J.%Cámara-Cabrera%NULL%2,                         J.%Cámara-Cabrera%NULL%0,                         Pedro L.%Esteban%NULL%2,                         Pedro L.%Esteban%NULL%0,                         Laia%Brunet%NULL%2,                         Laia%Brunet%NULL%0,                         Luis%Delgado-Flores%NULL%2,                         Luis%Delgado-Flores%NULL%0,                         P.%Camacho-Carrasco%NULL%2,                         P.%Camacho-Carrasco%NULL%0,                         P.%Torner%NULL%2,                         P.%Torner%NULL%0,                         Francesc%Marcano-Fernández%NULL%2,                         Francesc%Marcano-Fernández%NULL%0,                         NULL%NULL%NULL%0,                         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zoe B.%Cheung%zoe.cheung@mountsinai.org%1,                         David A.%Forsh%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -873,6 +948,9 @@
       <c r="I1" t="s">
         <v>48</v>
       </c>
+      <c r="J1" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -888,7 +966,7 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -901,6 +979,9 @@
       </c>
       <c r="I2" t="s">
         <v>141</v>
+      </c>
+      <c r="J2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -917,7 +998,7 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -930,6 +1011,9 @@
       </c>
       <c r="I3" t="s">
         <v>141</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -946,7 +1030,7 @@
         <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="F4" t="s">
         <v>33</v>
@@ -959,6 +1043,9 @@
       </c>
       <c r="I4" t="s">
         <v>141</v>
+      </c>
+      <c r="J4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="5">
@@ -975,7 +1062,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="F5" t="s">
         <v>38</v>
@@ -988,6 +1075,9 @@
       </c>
       <c r="I5" t="s">
         <v>145</v>
+      </c>
+      <c r="J5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6">
@@ -1004,7 +1094,7 @@
         <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>153</v>
+        <v>102</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -1013,10 +1103,13 @@
         <v>75</v>
       </c>
       <c r="H6" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="I6" t="s">
-        <v>147</v>
+        <v>55</v>
+      </c>
+      <c r="J6" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="7">
@@ -1033,7 +1126,7 @@
         <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>154</v>
+        <v>103</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
@@ -1042,10 +1135,13 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="I7" t="s">
-        <v>147</v>
+        <v>55</v>
+      </c>
+      <c r="J7" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/92.xlsx
+++ b/Covid_19_Dataset_and_References/References/92.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="188">
   <si>
     <t>Doi</t>
   </si>
@@ -615,6 +615,30 @@
   </si>
   <si>
     <t>[Zoe B.%Cheung%zoe.cheung@mountsinai.org%1,                         David A.%Forsh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth A.%Egol%NULL%2,                          Sanjit R.%Konda%NULL%2,                          Mackenzie L.%Bird%NULL%2,                          Nicket%Dedhia%NULL%2,                          Emma K.%Landes%NULL%2,                          Rachel A.%Ranson%NULL%2,                          Sara J.%Solasz%NULL%2,                          Vinay K.%Aggarwal%NULL%2,                          Joseph A.%Bosco%NULL%2,                          David L.%Furgiuele%NULL%2,                          Abhishek%Ganta%NULL%2,                          Jason%Gould%NULL%2,                          Thomas R.%Lyon%NULL%2,                          Toni M.%McLaurin%NULL%2,                          Nirmal C.%Tejwani%NULL%2,                          Joseph D.%Zuckerman%NULL%2,                          Philipp%Leucht%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Drake G.%LeBrun%NULL%2,                          Maxwell A.%Konnaris%NULL%2,                          Gregory C.%Ghahramani%NULL%2,                          Ajay%Premkumar%NULL%2,                          Chris J.%DeFrancesco%NULL%2,                          Jordan A.%Gruskay%NULL%2,                          Aleksey%Dvorzhinskiy%NULL%2,                          Milan S.%Sandhu%NULL%2,                          Elan M.%Goldwyn%NULL%2,                          Christopher L.%Mendias%NULL%2,                          William M.%Ricci%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Josep Maria%Muñoz Vives%NULL%1,                          Montsant%Jornet-Gibert%NULL%2,                          Montsant%Jornet-Gibert%NULL%0,                          J.%Cámara-Cabrera%NULL%2,                          J.%Cámara-Cabrera%NULL%0,                          Pedro L.%Esteban%NULL%2,                          Pedro L.%Esteban%NULL%0,                          Laia%Brunet%NULL%2,                          Laia%Brunet%NULL%0,                          Luis%Delgado-Flores%NULL%2,                          Luis%Delgado-Flores%NULL%0,                          P.%Camacho-Carrasco%NULL%2,                          P.%Camacho-Carrasco%NULL%0,                          P.%Torner%NULL%2,                          P.%Torner%NULL%0,                          Francesc%Marcano-Fernández%NULL%2,                          Francesc%Marcano-Fernández%NULL%0,                          NULL%NULL%NULL%0,                          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zoe B.%Cheung%zoe.cheung@mountsinai.org%1,                          David A.%Forsh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth A.%Egol%NULL%2,                           Sanjit R.%Konda%NULL%2,                           Mackenzie L.%Bird%NULL%2,                           Nicket%Dedhia%NULL%2,                           Emma K.%Landes%NULL%2,                           Rachel A.%Ranson%NULL%2,                           Sara J.%Solasz%NULL%2,                           Vinay K.%Aggarwal%NULL%2,                           Joseph A.%Bosco%NULL%2,                           David L.%Furgiuele%NULL%2,                           Abhishek%Ganta%NULL%2,                           Jason%Gould%NULL%2,                           Thomas R.%Lyon%NULL%2,                           Toni M.%McLaurin%NULL%2,                           Nirmal C.%Tejwani%NULL%2,                           Joseph D.%Zuckerman%NULL%2,                           Philipp%Leucht%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Drake G.%LeBrun%NULL%2,                           Maxwell A.%Konnaris%NULL%2,                           Gregory C.%Ghahramani%NULL%2,                           Ajay%Premkumar%NULL%2,                           Chris J.%DeFrancesco%NULL%2,                           Jordan A.%Gruskay%NULL%2,                           Aleksey%Dvorzhinskiy%NULL%2,                           Milan S.%Sandhu%NULL%2,                           Elan M.%Goldwyn%NULL%2,                           Christopher L.%Mendias%NULL%2,                           William M.%Ricci%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Josep Maria%Muñoz Vives%NULL%1,                           Montsant%Jornet-Gibert%NULL%2,                           Montsant%Jornet-Gibert%NULL%0,                           J.%Cámara-Cabrera%NULL%2,                           J.%Cámara-Cabrera%NULL%0,                           Pedro L.%Esteban%NULL%2,                           Pedro L.%Esteban%NULL%0,                           Laia%Brunet%NULL%2,                           Laia%Brunet%NULL%0,                           Luis%Delgado-Flores%NULL%2,                           Luis%Delgado-Flores%NULL%0,                           P.%Camacho-Carrasco%NULL%2,                           P.%Camacho-Carrasco%NULL%0,                           P.%Torner%NULL%2,                           P.%Torner%NULL%0,                           Francesc%Marcano-Fernández%NULL%2,                           Francesc%Marcano-Fernández%NULL%0,                           NULL%NULL%NULL%0,                           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zoe B.%Cheung%zoe.cheung@mountsinai.org%1,                           David A.%Forsh%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -966,7 +990,7 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -998,7 +1022,7 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1030,7 +1054,7 @@
         <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="F4" t="s">
         <v>33</v>
@@ -1062,7 +1086,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="F5" t="s">
         <v>38</v>
@@ -1094,7 +1118,7 @@
         <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -1126,7 +1150,7 @@
         <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
